--- a/$SNAP.xlsx
+++ b/$SNAP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4DADFF-4FAA-43B7-9791-D294BDA7178A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6B136E-941E-4CCF-A8BC-33F07F8332A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{44DF1F66-8CA7-4F9E-A18D-70E480101119}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="132">
   <si>
     <t>$SNAP</t>
   </si>
@@ -410,6 +410,27 @@
   </si>
   <si>
     <t>Employees</t>
+  </si>
+  <si>
+    <t>USP</t>
+  </si>
+  <si>
+    <t>Stories</t>
+  </si>
+  <si>
+    <t>Most other social media has this now</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Other platforms are catching up with this</t>
+  </si>
+  <si>
+    <t>Every other app has these now</t>
+  </si>
+  <si>
+    <t>Hosted w/ AWS/GCP</t>
   </si>
 </sst>
 </file>
@@ -618,7 +639,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -700,6 +721,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -721,45 +754,35 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1196,10 +1219,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{602AFA7D-03CB-4515-B61E-E567BC9E1CC0}">
-  <dimension ref="B2:W40"/>
+  <dimension ref="B2:AB40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32:D32"/>
+      <selection activeCell="C12" sqref="B1:O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1209,39 +1232,45 @@
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23">
+    <row r="2" spans="2:28">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:23">
+    <row r="3" spans="2:28">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:23">
-      <c r="B5" s="47" t="s">
+    <row r="5" spans="2:28">
+      <c r="B5" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="49"/>
-      <c r="G5" s="47" t="s">
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="G5" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="49"/>
-      <c r="U5" s="52" t="s">
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="55"/>
+      <c r="U5" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="V5" s="52"/>
-    </row>
-    <row r="6" spans="2:23">
+      <c r="V5" s="55"/>
+      <c r="Y5" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z5" s="54"/>
+      <c r="AA5" s="54"/>
+      <c r="AB5" s="55"/>
+    </row>
+    <row r="6" spans="2:28">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
@@ -1262,11 +1291,18 @@
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="12"/>
-      <c r="U6" s="1" t="s">
+      <c r="U6" s="45" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="7" spans="2:23">
+      <c r="V6" s="12"/>
+      <c r="Y6" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="12"/>
+    </row>
+    <row r="7" spans="2:28">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1286,11 +1322,18 @@
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="12"/>
-      <c r="U7" s="1" t="s">
+      <c r="U7" s="45" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="8" spans="2:23">
+      <c r="V7" s="12"/>
+      <c r="Y7" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="12"/>
+    </row>
+    <row r="8" spans="2:28">
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1312,11 +1355,16 @@
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="12"/>
-      <c r="U8" s="1" t="s">
+      <c r="U8" s="45" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="9" spans="2:23">
+      <c r="V8" s="12"/>
+      <c r="Y8" s="45"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="12"/>
+    </row>
+    <row r="9" spans="2:28">
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1336,11 +1384,18 @@
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
       <c r="O9" s="12"/>
-      <c r="U9" s="1" t="s">
+      <c r="U9" s="45" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="10" spans="2:23">
+      <c r="V9" s="12"/>
+      <c r="Y9" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="12"/>
+    </row>
+    <row r="10" spans="2:28">
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1360,11 +1415,18 @@
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
       <c r="O10" s="12"/>
-      <c r="U10" s="63" t="s">
+      <c r="U10" s="46" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="11" spans="2:23">
+      <c r="V10" s="12"/>
+      <c r="Y10" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="12"/>
+    </row>
+    <row r="11" spans="2:28">
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1388,11 +1450,16 @@
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
       <c r="O11" s="12"/>
-      <c r="U11" s="63" t="s">
+      <c r="U11" s="46" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="12" spans="2:23">
+      <c r="V11" s="12"/>
+      <c r="Y11" s="45"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="12"/>
+    </row>
+    <row r="12" spans="2:28">
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
@@ -1410,8 +1477,18 @@
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
       <c r="O12" s="12"/>
-    </row>
-    <row r="13" spans="2:23">
+      <c r="U12" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="V12" s="17"/>
+      <c r="Y12" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="12"/>
+    </row>
+    <row r="13" spans="2:28">
       <c r="G13" s="14"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
@@ -1421,8 +1498,14 @@
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
       <c r="O13" s="12"/>
-    </row>
-    <row r="14" spans="2:23">
+      <c r="Y13" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="17"/>
+    </row>
+    <row r="14" spans="2:28">
       <c r="G14" s="14"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
@@ -1433,12 +1516,12 @@
       <c r="N14" s="11"/>
       <c r="O14" s="12"/>
     </row>
-    <row r="15" spans="2:23">
-      <c r="B15" s="47" t="s">
+    <row r="15" spans="2:28">
+      <c r="B15" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="49"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="55"/>
       <c r="G15" s="14"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
@@ -1449,14 +1532,14 @@
       <c r="N15" s="11"/>
       <c r="O15" s="12"/>
     </row>
-    <row r="16" spans="2:23">
+    <row r="16" spans="2:28">
       <c r="B16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="51"/>
+      <c r="D16" s="57"/>
       <c r="E16" s="1" t="s">
         <v>45</v>
       </c>
@@ -1469,10 +1552,10 @@
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="12"/>
-      <c r="U16" s="47" t="s">
+      <c r="U16" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="V16" s="49"/>
+      <c r="V16" s="55"/>
       <c r="W16" s="42">
         <f>SUM(V17:V20)</f>
         <v>1970</v>
@@ -1482,10 +1565,10 @@
       <c r="B17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="51"/>
+      <c r="D17" s="57"/>
       <c r="G17" s="14"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
@@ -1506,10 +1589,10 @@
       <c r="B18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="51"/>
+      <c r="D18" s="57"/>
       <c r="E18" s="1" t="s">
         <v>45</v>
       </c>
@@ -1533,8 +1616,8 @@
       <c r="B19" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="59"/>
-      <c r="D19" s="60"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="59"/>
       <c r="G19" s="24">
         <v>44774</v>
       </c>
@@ -1584,11 +1667,11 @@
       <c r="O21" s="12"/>
     </row>
     <row r="22" spans="2:22">
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="49"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="55"/>
       <c r="G22" s="15"/>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
@@ -1603,71 +1686,71 @@
       <c r="B23" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="51"/>
+      <c r="D23" s="57"/>
     </row>
     <row r="24" spans="2:22">
       <c r="B24" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="50">
+      <c r="C24" s="62">
         <v>2010</v>
       </c>
-      <c r="D24" s="51"/>
+      <c r="D24" s="57"/>
     </row>
     <row r="25" spans="2:22">
       <c r="B25" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="57">
+      <c r="C25" s="63">
         <v>42795</v>
       </c>
-      <c r="D25" s="58"/>
+      <c r="D25" s="64"/>
     </row>
     <row r="26" spans="2:22">
       <c r="B26" s="14"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="54"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="66"/>
     </row>
     <row r="27" spans="2:22">
       <c r="B27" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="50">
+      <c r="C27" s="62">
         <f>'Financial Model'!Z33</f>
         <v>414</v>
       </c>
-      <c r="D27" s="51"/>
+      <c r="D27" s="57"/>
     </row>
     <row r="28" spans="2:22">
       <c r="B28" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C28" s="50">
+      <c r="C28" s="62">
         <f>'Financial Model'!Z35</f>
         <v>3.29</v>
       </c>
-      <c r="D28" s="51"/>
+      <c r="D28" s="57"/>
     </row>
     <row r="29" spans="2:22">
       <c r="B29" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="64">
+      <c r="C29" s="56">
         <f>'Financial Model'!Z37</f>
         <v>5289</v>
       </c>
-      <c r="D29" s="51"/>
+      <c r="D29" s="57"/>
       <c r="E29" s="25" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="30" spans="2:22">
       <c r="B30" s="14"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="54"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="66"/>
     </row>
     <row r="31" spans="2:22">
       <c r="B31" s="14" t="s">
@@ -1682,81 +1765,75 @@
       <c r="B32" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="55" t="s">
+      <c r="C32" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="56"/>
+      <c r="D32" s="61"/>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="47" t="s">
+      <c r="B35" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="48"/>
-      <c r="D35" s="49"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="55"/>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="43">
+      <c r="C36" s="49">
         <f>C8/'Financial Model'!Z4</f>
         <v>3.8613710513089665</v>
       </c>
-      <c r="D36" s="44"/>
+      <c r="D36" s="50"/>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="43">
+      <c r="C37" s="49">
         <f>C12/'Financial Model'!Z4</f>
         <v>3.9059465775387716</v>
       </c>
-      <c r="D37" s="44"/>
+      <c r="D37" s="50"/>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="43">
+      <c r="C38" s="49">
         <f>C6/'Financial Model'!Z17</f>
         <v>-13.448862648725685</v>
       </c>
-      <c r="D38" s="44"/>
+      <c r="D38" s="50"/>
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="43">
+      <c r="C39" s="49">
         <f>C12/'Financial Model'!Z16</f>
         <v>-13.60411582740068</v>
       </c>
-      <c r="D39" s="44"/>
+      <c r="D39" s="50"/>
     </row>
     <row r="40" spans="2:4">
       <c r="B40" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="45">
+      <c r="C40" s="51">
         <f>C6/'Financial Model'!Z65</f>
         <v>7.3674788576503545</v>
       </c>
-      <c r="D40" s="46"/>
+      <c r="D40" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="26">
+    <mergeCell ref="Y5:AB5"/>
     <mergeCell ref="U5:V5"/>
     <mergeCell ref="U16:V16"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="C16:D16"/>
@@ -1771,6 +1848,13 @@
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C32:D32" r:id="rId1" display="Link" xr:uid="{560A9EC9-9A89-472D-B1C1-EECB97317C07}"/>
@@ -2266,43 +2350,43 @@
         <v>414</v>
       </c>
     </row>
-    <row r="34" spans="2:26" s="62" customFormat="1">
-      <c r="B34" s="61" t="s">
+    <row r="34" spans="2:26" s="44" customFormat="1">
+      <c r="B34" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="G34" s="62">
+      <c r="G34" s="44">
         <f>G33/F33-1</f>
         <v>4.0752351097178785E-2</v>
       </c>
-      <c r="H34" s="62">
+      <c r="H34" s="44">
         <f t="shared" ref="H34:N34" si="8">H33/G33-1</f>
         <v>4.5180722891566161E-2</v>
       </c>
-      <c r="I34" s="62">
+      <c r="I34" s="44">
         <f t="shared" si="8"/>
         <v>4.6109510086455252E-2</v>
       </c>
-      <c r="J34" s="62">
+      <c r="J34" s="44">
         <f t="shared" si="8"/>
         <v>3.3057851239669311E-2</v>
       </c>
-      <c r="K34" s="62">
+      <c r="K34" s="44">
         <f t="shared" si="8"/>
         <v>2.1333333333333426E-2</v>
       </c>
-      <c r="L34" s="62">
+      <c r="L34" s="44">
         <f t="shared" si="8"/>
         <v>3.6553524804177506E-2</v>
       </c>
-      <c r="M34" s="62">
+      <c r="M34" s="44">
         <f t="shared" si="8"/>
         <v>2.267002518891692E-2</v>
       </c>
-      <c r="N34" s="62">
+      <c r="N34" s="44">
         <f t="shared" si="8"/>
         <v>1.9704433497536922E-2</v>
       </c>
-      <c r="Z34" s="62">
+      <c r="Z34" s="44">
         <f>Z33/Y33-1</f>
         <v>0.10400000000000009</v>
       </c>
@@ -2346,42 +2430,42 @@
       </c>
     </row>
     <row r="36" spans="2:26">
-      <c r="B36" s="61" t="s">
+      <c r="B36" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="G36" s="62">
+      <c r="G36" s="44">
         <f>G35/F35-1</f>
         <v>-0.21182266009852202</v>
       </c>
-      <c r="H36" s="62">
+      <c r="H36" s="44">
         <f t="shared" ref="H36:N36" si="9">H35/G35-1</f>
         <v>0</v>
       </c>
-      <c r="I36" s="62">
+      <c r="I36" s="44">
         <f t="shared" si="9"/>
         <v>-2.8125000000000067E-2</v>
       </c>
-      <c r="J36" s="62">
+      <c r="J36" s="44">
         <f t="shared" si="9"/>
         <v>0.11575562700964648</v>
       </c>
-      <c r="K36" s="62">
+      <c r="K36" s="44">
         <f t="shared" si="9"/>
         <v>-0.25648414985590784</v>
       </c>
-      <c r="L36" s="62">
+      <c r="L36" s="44">
         <f t="shared" si="9"/>
         <v>4.2635658914728536E-2</v>
       </c>
-      <c r="M36" s="62">
+      <c r="M36" s="44">
         <f t="shared" si="9"/>
         <v>8.9219330855018653E-2</v>
       </c>
-      <c r="N36" s="62">
+      <c r="N36" s="44">
         <f t="shared" si="9"/>
         <v>0.12286689419795227</v>
       </c>
-      <c r="Z36" s="62">
+      <c r="Z36" s="44">
         <f>Z35/Y35-1</f>
         <v>-5.187319884726227E-2</v>
       </c>
@@ -2399,7 +2483,7 @@
         <v>118</v>
       </c>
       <c r="X38" s="32">
-        <f t="shared" ref="X38:Z38" si="10">X8/X4</f>
+        <f t="shared" ref="X38:Y38" si="10">X8/X4</f>
         <v>0.19255641420746128</v>
       </c>
       <c r="Y38" s="32">
@@ -2666,7 +2750,7 @@
         <v>105</v>
       </c>
       <c r="Y64" s="29">
-        <f t="shared" ref="Y64:Z64" si="11">+Y50-Y59</f>
+        <f t="shared" ref="Y64" si="11">+Y50-Y59</f>
         <v>2580.6980000000003</v>
       </c>
       <c r="Z64" s="29">
@@ -2692,7 +2776,7 @@
         <v>6</v>
       </c>
       <c r="Y67" s="29">
-        <f t="shared" ref="Y67:Z67" si="13">+Y41+Y42</f>
+        <f t="shared" ref="Y67" si="13">+Y41+Y42</f>
         <v>3939.1240000000003</v>
       </c>
       <c r="Z67" s="29">
@@ -2705,7 +2789,7 @@
         <v>7</v>
       </c>
       <c r="Y68" s="29">
-        <f t="shared" ref="Y68:Z68" si="14">+Y56</f>
+        <f t="shared" ref="Y68" si="14">+Y56</f>
         <v>3742.52</v>
       </c>
       <c r="Z68" s="29">
@@ -2768,7 +2852,7 @@
         <v>26</v>
       </c>
       <c r="Y75" s="37">
-        <f t="shared" ref="Y75:Z75" si="17">Y71/Y65</f>
+        <f t="shared" ref="Y75" si="17">Y71/Y65</f>
         <v>5.5776851068974356</v>
       </c>
       <c r="Z75" s="37">
@@ -2781,7 +2865,7 @@
         <v>22</v>
       </c>
       <c r="Y76" s="37">
-        <f t="shared" ref="Y76:Z76" si="18">Y72/Y4</f>
+        <f t="shared" ref="Y76" si="18">Y72/Y4</f>
         <v>3.1279442363033798</v>
       </c>
       <c r="Z76" s="37">
@@ -2794,7 +2878,7 @@
         <v>23</v>
       </c>
       <c r="Y77" s="37">
-        <f t="shared" ref="Y77:Z77" si="19">Y73/Y4</f>
+        <f t="shared" ref="Y77" si="19">Y73/Y4</f>
         <v>3.0852213904547456</v>
       </c>
       <c r="Z77" s="37">
@@ -2807,7 +2891,7 @@
         <v>24</v>
       </c>
       <c r="Y78" s="37">
-        <f t="shared" ref="Y78:Z78" si="20">Y71/Y17</f>
+        <f t="shared" ref="Y78" si="20">Y71/Y17</f>
         <v>-10.068401773017641</v>
       </c>
       <c r="Z78" s="37">
@@ -2820,7 +2904,7 @@
         <v>25</v>
       </c>
       <c r="Y79" s="37">
-        <f t="shared" ref="Y79:Z79" si="21">Y73/Y16</f>
+        <f t="shared" ref="Y79" si="21">Y73/Y16</f>
         <v>-9.9308830884137542</v>
       </c>
       <c r="Z79" s="37">
